--- a/test.xlsx
+++ b/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/41adfc2189b6d7db/Desktop/IE5600 Project Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B776165F-A32D-45B7-9FCA-E4F40CECF734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="8_{B776165F-A32D-45B7-9FCA-E4F40CECF734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF3FE2D8-52E4-4227-836B-6F7FE22DFED9}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11055" xr2:uid="{62DFA58E-867F-4ED2-9C5F-11CA8AE6607A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{62DFA58E-867F-4ED2-9C5F-11CA8AE6607A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Employee ID</t>
   </si>
@@ -59,34 +59,40 @@
     <t>Shaun</t>
   </si>
   <si>
+    <t>Lim</t>
+  </si>
+  <si>
     <t>Vishnu</t>
   </si>
   <si>
+    <t>Kanth</t>
+  </si>
+  <si>
     <t>Zheng</t>
   </si>
   <si>
+    <t>Yang</t>
+  </si>
+  <si>
     <t>Albertus</t>
   </si>
   <si>
+    <t>Alvin</t>
+  </si>
+  <si>
     <t>Ryan</t>
   </si>
   <si>
+    <t>Phua</t>
+  </si>
+  <si>
     <t>Joel</t>
   </si>
   <si>
-    <t>Lim</t>
-  </si>
-  <si>
-    <t>Kanth</t>
-  </si>
-  <si>
-    <t>Yang</t>
-  </si>
-  <si>
-    <t>Alvin</t>
-  </si>
-  <si>
-    <t>Phua</t>
+    <t>a</t>
+  </si>
+  <si>
+    <t>c</t>
   </si>
 </sst>
 </file>
@@ -122,8 +128,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45B542D1-691B-44A7-84E9-52C2A34DCE7F}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,7 +489,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D2">
         <v>50</v>
@@ -499,10 +506,10 @@
         <v>25027504</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D3">
         <v>10</v>
@@ -519,10 +526,10 @@
         <v>25027505</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D4">
         <v>12</v>
@@ -530,8 +537,8 @@
       <c r="E4">
         <v>8</v>
       </c>
-      <c r="F4">
-        <v>3</v>
+      <c r="F4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -539,10 +546,10 @@
         <v>25027506</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -550,8 +557,8 @@
       <c r="E5">
         <v>8</v>
       </c>
-      <c r="F5">
-        <v>2</v>
+      <c r="F5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -559,10 +566,10 @@
         <v>25027507</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -579,10 +586,10 @@
         <v>25027508</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D7">
         <v>8</v>
@@ -593,6 +600,30 @@
       <c r="F7">
         <v>1</v>
       </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
